--- a/docs/_site/demo/demo.xlsx
+++ b/docs/_site/demo/demo.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\utku\GitHub\SLMeasure\docs\demo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B563D8-88D5-421E-B331-E89D1A44824D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="2" r:id="rId3"/>
+    <sheet name="Summary" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>box_no</t>
   </si>
@@ -31,31 +37,13 @@
     <t>fft_sl</t>
   </si>
   <si>
-    <t>2.601</t>
-  </si>
-  <si>
-    <t>2.394</t>
-  </si>
-  <si>
-    <t>2.498</t>
-  </si>
-  <si>
     <t>acf_sl</t>
-  </si>
-  <si>
-    <t>2.605</t>
-  </si>
-  <si>
-    <t>2.423</t>
-  </si>
-  <si>
-    <t>2.514</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -70,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -78,75 +66,385 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="true"/>
-    <col min="2" max="2" width="5.7109375" customWidth="true"/>
-    <col min="3" max="3" width="6.140625" customWidth="true"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>8</v>
+      <c r="C1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
+      <c r="B2" s="1">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.58</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
+      <c r="B3" s="1">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.54</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
+      <c r="B4" s="1">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.56</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/_site/demo/demo.xlsx
+++ b/docs/_site/demo/demo.xlsx
@@ -447,4 +447,270 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="482b41a7d5b6e1869d3096739eaa397a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183c2dbcc88402a537c49c71030961e9" ns2:_="" ns3:_="">
+    <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <xsd:import namespace="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4560d88b-9459-45c3-8a30-9c03b99f5b18" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6cbc0c5a-d948-46e5-8624-1bad210f77c7" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e6299094-9969-4aa1-ba76-85cf9469c7b4}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="6cbc0c5a-d948-46e5-8624-1bad210f77c7">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{214111DB-DFA8-467D-9810-3FBDF234ACCC}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06544F62-D3C9-4661-87B8-53F0E98BA267}"/>
 </file>